--- a/design/接口与表设计.xlsx
+++ b/design/接口与表设计.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DolphinDB\Project\QuantData\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401F44E-AFDE-4591-91B8-B8ED78C6D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C6805-E093-4BB0-8F28-2DAD384A880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13632" yWindow="0" windowWidth="16020" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11916" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="股票" sheetId="1" r:id="rId1"/>
-    <sheet name="指数" sheetId="4" r:id="rId2"/>
-    <sheet name="期货" sheetId="2" r:id="rId3"/>
-    <sheet name="期权" sheetId="3" r:id="rId4"/>
+    <sheet name="Sys" sheetId="5" r:id="rId1"/>
+    <sheet name="股票" sheetId="1" r:id="rId2"/>
+    <sheet name="指数" sheetId="4" r:id="rId3"/>
+    <sheet name="期货" sheetId="2" r:id="rId4"/>
+    <sheet name="期权" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="301">
   <si>
     <t>基本信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,6 +1126,90 @@
   </si>
   <si>
     <t>前收盘价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化，即刚建立该表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次正常运行 -&gt;下次从nextDate开始拉起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次异常运行-&gt;下次先删除firstDate,lastDate区间的数据,再从firstDate,lastDate开始拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表内最大日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表内最小日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyedTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享键值表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态信息维度表，下次需要重新拉取写入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,6 +1295,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,11 +1581,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB3C48-0849-4020-9495-43B69A1ABD21}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="G5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1957,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976D168-40EC-43CA-9237-51A51EDA5F27}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2179,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71308379-5FC4-4D29-BFCA-8E8CE642DF49}">
   <dimension ref="A1:E85"/>
   <sheetViews>
@@ -2952,11 +3185,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D18A1-F6DB-4F31-A09F-8F4628526EE0}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/design/接口与表设计.xlsx
+++ b/design/接口与表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DolphinDB\Project\QuantData\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C6805-E093-4BB0-8F28-2DAD384A880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E955BCCD-3C5A-4FFA-8913-55A786448FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11916" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="17640" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sys" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="303">
   <si>
     <t>基本信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,6 +1210,14 @@
   </si>
   <si>
     <t>静态信息维度表，下次需要重新拉取写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1585,7 +1593,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1653,9 @@
       <c r="G3" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -1668,6 +1678,9 @@
       </c>
       <c r="G4" s="5" t="s">
         <v>297</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
